--- a/Lab 12/TD_SIG_ALL.xlsx
+++ b/Lab 12/TD_SIG_ALL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pearl\Desktop\Edumacation\ATSC 303\Lab 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FC681E-6EC0-4B53-9A84-BF86B4BF2E16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE0E378-C94C-4CA5-98DF-040EE9973578}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -474,37 +474,37 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1">
-        <v>998.3</v>
+        <v>970.7</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>329</v>
       </c>
       <c r="D3">
-        <v>4.8500000000000201</v>
+        <v>4.3500000000000201</v>
       </c>
       <c r="E3">
-        <v>-1.25</v>
+        <v>-0.849999999999966</v>
       </c>
       <c r="F3">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G3">
-        <v>1.56</v>
+        <v>-0.11</v>
       </c>
       <c r="H3">
-        <v>1.38</v>
+        <v>-0.47</v>
       </c>
       <c r="I3">
-        <v>221</v>
+        <v>360</v>
       </c>
       <c r="J3">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="K3">
-        <v>7.56</v>
+        <v>1.8</v>
       </c>
       <c r="L3">
         <v>-123.24</v>
@@ -515,37 +515,37 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="B4" s="1">
-        <v>970.7</v>
+        <v>951.4</v>
       </c>
       <c r="C4">
-        <v>329</v>
+        <v>492</v>
       </c>
       <c r="D4">
-        <v>4.3500000000000201</v>
+        <v>3.6500000000000301</v>
       </c>
       <c r="E4">
-        <v>-0.849999999999966</v>
+        <v>-2.3499999999999699</v>
       </c>
       <c r="F4">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G4">
-        <v>-0.11</v>
+        <v>-1.18</v>
       </c>
       <c r="H4">
-        <v>-0.47</v>
+        <v>-3.68</v>
       </c>
       <c r="I4">
-        <v>360</v>
+        <v>72</v>
       </c>
       <c r="J4">
-        <v>0.5</v>
+        <v>3.9</v>
       </c>
       <c r="K4">
-        <v>1.8</v>
+        <v>14.04</v>
       </c>
       <c r="L4">
         <v>-123.24</v>
@@ -556,37 +556,37 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="B5" s="1">
-        <v>951.4</v>
+        <v>942</v>
       </c>
       <c r="C5">
-        <v>492</v>
+        <v>573</v>
       </c>
       <c r="D5">
-        <v>3.6500000000000301</v>
+        <v>4.8500000000000201</v>
       </c>
       <c r="E5">
-        <v>-2.3499999999999699</v>
+        <v>-8.25</v>
       </c>
       <c r="F5">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="G5">
-        <v>-1.18</v>
+        <v>-0.69</v>
       </c>
       <c r="H5">
-        <v>-3.68</v>
+        <v>-5.18</v>
       </c>
       <c r="I5">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J5">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="K5">
-        <v>14.04</v>
+        <v>18.72</v>
       </c>
       <c r="L5">
         <v>-123.24</v>
@@ -597,40 +597,40 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>178</v>
+        <v>262</v>
       </c>
       <c r="B6" s="1">
-        <v>942</v>
+        <v>916.4</v>
       </c>
       <c r="C6">
-        <v>573</v>
+        <v>797</v>
       </c>
       <c r="D6">
-        <v>4.8500000000000201</v>
+        <v>3.3500000000000201</v>
       </c>
       <c r="E6">
-        <v>-8.25</v>
+        <v>-11.05</v>
       </c>
       <c r="F6">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G6">
-        <v>-0.69</v>
+        <v>0.72</v>
       </c>
       <c r="H6">
-        <v>-5.18</v>
+        <v>-8.9600000000000009</v>
       </c>
       <c r="I6">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="J6">
-        <v>5.2</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>18.72</v>
+        <v>32.4</v>
       </c>
       <c r="L6">
-        <v>-123.24</v>
+        <v>-123.25</v>
       </c>
       <c r="M6">
         <v>49.25</v>
@@ -638,40 +638,40 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>262</v>
+        <v>394</v>
       </c>
       <c r="B7" s="1">
-        <v>916.4</v>
+        <v>875</v>
       </c>
       <c r="C7">
-        <v>797</v>
+        <v>1170</v>
       </c>
       <c r="D7">
-        <v>3.3500000000000201</v>
+        <v>0.25</v>
       </c>
       <c r="E7">
-        <v>-11.05</v>
+        <v>-13.65</v>
       </c>
       <c r="F7">
         <v>34</v>
       </c>
       <c r="G7">
-        <v>0.72</v>
+        <v>3.16</v>
       </c>
       <c r="H7">
-        <v>-8.9600000000000009</v>
+        <v>-7.91</v>
       </c>
       <c r="I7">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="K7">
-        <v>32.4</v>
+        <v>30.6</v>
       </c>
       <c r="L7">
-        <v>-123.25</v>
+        <v>-123.27</v>
       </c>
       <c r="M7">
         <v>49.25</v>
@@ -679,31 +679,31 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>394</v>
+        <v>498</v>
       </c>
       <c r="B8" s="1">
-        <v>875</v>
+        <v>850.2</v>
       </c>
       <c r="C8">
-        <v>1170</v>
+        <v>1399</v>
       </c>
       <c r="D8">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="E8">
-        <v>-13.65</v>
+        <v>-11.55</v>
       </c>
       <c r="F8">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G8">
-        <v>3.16</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="H8">
-        <v>-7.91</v>
+        <v>-7.39</v>
       </c>
       <c r="I8">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="J8">
         <v>8.5</v>
@@ -712,39 +712,39 @@
         <v>30.6</v>
       </c>
       <c r="L8">
-        <v>-123.27</v>
+        <v>-123.28</v>
       </c>
       <c r="M8">
-        <v>49.25</v>
+        <v>49.26</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>498</v>
+        <v>530</v>
       </c>
       <c r="B9" s="1">
-        <v>850.2</v>
+        <v>842.4</v>
       </c>
       <c r="C9">
-        <v>1399</v>
+        <v>1472</v>
       </c>
       <c r="D9">
-        <v>-1.75</v>
+        <v>-2.1499999999999799</v>
       </c>
       <c r="E9">
-        <v>-11.55</v>
+        <v>-9.3499999999999694</v>
       </c>
       <c r="F9">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G9">
-        <v>4.1399999999999997</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="H9">
-        <v>-7.39</v>
+        <v>-6.92</v>
       </c>
       <c r="I9">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="J9">
         <v>8.5</v>
@@ -761,28 +761,28 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>632</v>
+        <v>662</v>
       </c>
       <c r="B10" s="1">
-        <v>819.2</v>
+        <v>813.1</v>
       </c>
       <c r="C10">
-        <v>1693</v>
+        <v>1752</v>
       </c>
       <c r="D10">
-        <v>-3.5499999999999501</v>
+        <v>-3.94999999999999</v>
       </c>
       <c r="E10">
-        <v>-9.8499999999999694</v>
+        <v>-8.25</v>
       </c>
       <c r="F10">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G10">
-        <v>6.92</v>
+        <v>6.86</v>
       </c>
       <c r="H10">
-        <v>-6.11</v>
+        <v>-6.06</v>
       </c>
       <c r="I10">
         <v>139</v>
@@ -797,1441 +797,826 @@
         <v>-123.29</v>
       </c>
       <c r="M10">
-        <v>49.26</v>
+        <v>49.27</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>530</v>
+        <v>822</v>
       </c>
       <c r="B11" s="1">
-        <v>842.4</v>
+        <v>779.8</v>
       </c>
       <c r="C11">
-        <v>1472</v>
+        <v>2081</v>
       </c>
       <c r="D11">
-        <v>-2.1499999999999799</v>
+        <v>-5.6499999999999799</v>
       </c>
       <c r="E11">
-        <v>-9.3499999999999694</v>
+        <v>-11.95</v>
       </c>
       <c r="F11">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G11">
-        <v>4.8600000000000003</v>
+        <v>10.57</v>
       </c>
       <c r="H11">
-        <v>-6.92</v>
+        <v>-3.34</v>
       </c>
       <c r="I11">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="J11">
-        <v>8.5</v>
+        <v>11.1</v>
       </c>
       <c r="K11">
-        <v>30.6</v>
+        <v>39.96</v>
       </c>
       <c r="L11">
-        <v>-123.28</v>
+        <v>-123.3</v>
       </c>
       <c r="M11">
-        <v>49.26</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>662</v>
+        <v>880</v>
       </c>
       <c r="B12" s="1">
-        <v>813.1</v>
+        <v>766.8</v>
       </c>
       <c r="C12">
-        <v>1752</v>
+        <v>2212</v>
       </c>
       <c r="D12">
-        <v>-3.94999999999999</v>
+        <v>-6.5499999999999501</v>
       </c>
       <c r="E12">
-        <v>-8.25</v>
+        <v>-9.25</v>
       </c>
       <c r="F12">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G12">
-        <v>6.86</v>
+        <v>8.57</v>
       </c>
       <c r="H12">
-        <v>-6.06</v>
+        <v>-2.89</v>
       </c>
       <c r="I12">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="J12">
-        <v>9.1999999999999993</v>
+        <v>9</v>
       </c>
       <c r="K12">
-        <v>33.119999999999997</v>
+        <v>32.4</v>
       </c>
       <c r="L12">
-        <v>-123.29</v>
+        <v>-123.31</v>
       </c>
       <c r="M12">
-        <v>49.27</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>880</v>
+        <v>1086</v>
       </c>
       <c r="B13" s="1">
-        <v>766.8</v>
+        <v>724.3</v>
       </c>
       <c r="C13">
-        <v>2212</v>
+        <v>2656</v>
       </c>
       <c r="D13">
-        <v>-6.5499999999999501</v>
+        <v>-9.1499999999999808</v>
       </c>
       <c r="E13">
-        <v>-9.25</v>
+        <v>-13.45</v>
       </c>
       <c r="F13">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G13">
-        <v>8.57</v>
+        <v>7.2</v>
       </c>
       <c r="H13">
-        <v>-2.89</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I13">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="J13">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="K13">
-        <v>32.4</v>
+        <v>25.92</v>
       </c>
       <c r="L13">
         <v>-123.31</v>
       </c>
       <c r="M13">
-        <v>49.28</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>822</v>
+        <v>1430</v>
       </c>
       <c r="B14" s="1">
-        <v>779.8</v>
+        <v>661.2</v>
       </c>
       <c r="C14">
-        <v>2081</v>
+        <v>3355</v>
       </c>
       <c r="D14">
-        <v>-5.6499999999999799</v>
+        <v>-13.85</v>
       </c>
       <c r="E14">
-        <v>-11.95</v>
+        <v>-22.05</v>
       </c>
       <c r="F14">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G14">
-        <v>10.57</v>
+        <v>6.95</v>
       </c>
       <c r="H14">
-        <v>-3.34</v>
+        <v>-0.13</v>
       </c>
       <c r="I14">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="J14">
-        <v>11.1</v>
+        <v>7</v>
       </c>
       <c r="K14">
-        <v>39.96</v>
+        <v>25.2</v>
       </c>
       <c r="L14">
-        <v>-123.3</v>
+        <v>-123.31</v>
       </c>
       <c r="M14">
-        <v>49.28</v>
+        <v>49.32</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>1114</v>
+        <v>1592</v>
       </c>
       <c r="B15" s="1">
-        <v>718.6</v>
+        <v>631.70000000000005</v>
       </c>
       <c r="C15">
-        <v>2717</v>
+        <v>3700</v>
       </c>
       <c r="D15">
-        <v>-9.5499999999999599</v>
+        <v>-16.95</v>
       </c>
       <c r="E15">
-        <v>-12.55</v>
+        <v>-22.05</v>
       </c>
       <c r="F15">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G15">
-        <v>7.16</v>
+        <v>6.62</v>
       </c>
       <c r="H15">
-        <v>0.69</v>
+        <v>1.55</v>
       </c>
       <c r="I15">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="J15">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="K15">
-        <v>25.92</v>
+        <v>24.48</v>
       </c>
       <c r="L15">
-        <v>-123.31</v>
+        <v>-123.3</v>
       </c>
       <c r="M15">
-        <v>49.3</v>
+        <v>49.33</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>1086</v>
+        <v>2150</v>
       </c>
       <c r="B16" s="1">
-        <v>724.3</v>
+        <v>533.6</v>
       </c>
       <c r="C16">
-        <v>2656</v>
+        <v>4939</v>
       </c>
       <c r="D16">
-        <v>-9.1499999999999808</v>
+        <v>-27.65</v>
       </c>
       <c r="E16">
-        <v>-13.45</v>
+        <v>-29.75</v>
       </c>
       <c r="F16">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G16">
-        <v>7.2</v>
+        <v>7.88</v>
       </c>
       <c r="H16">
-        <v>0.56999999999999995</v>
+        <v>9.57</v>
       </c>
       <c r="I16">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="J16">
-        <v>7.2</v>
+        <v>12.4</v>
       </c>
       <c r="K16">
-        <v>25.92</v>
+        <v>44.64</v>
       </c>
       <c r="L16">
-        <v>-123.31</v>
+        <v>-123.26</v>
       </c>
       <c r="M16">
-        <v>49.3</v>
+        <v>49.37</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>1430</v>
+        <v>2446</v>
       </c>
       <c r="B17" s="1">
-        <v>661.2</v>
+        <v>488.5</v>
       </c>
       <c r="C17">
-        <v>3355</v>
+        <v>5573</v>
       </c>
       <c r="D17">
-        <v>-13.85</v>
+        <v>-29.45</v>
       </c>
       <c r="E17">
-        <v>-22.05</v>
+        <v>-50.75</v>
       </c>
       <c r="F17">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G17">
-        <v>6.95</v>
+        <v>6.34</v>
       </c>
       <c r="H17">
-        <v>-0.13</v>
+        <v>5.22</v>
       </c>
       <c r="I17">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="J17">
-        <v>7</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K17">
-        <v>25.2</v>
+        <v>29.52</v>
       </c>
       <c r="L17">
-        <v>-123.31</v>
+        <v>-123.23</v>
       </c>
       <c r="M17">
-        <v>49.32</v>
+        <v>49.38</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>1592</v>
+        <v>2548</v>
       </c>
       <c r="B18" s="1">
-        <v>631.70000000000005</v>
+        <v>473.9</v>
       </c>
       <c r="C18">
-        <v>3700</v>
+        <v>5788</v>
       </c>
       <c r="D18">
-        <v>-16.95</v>
+        <v>-30.85</v>
       </c>
       <c r="E18">
-        <v>-22.05</v>
+        <v>-55.55</v>
       </c>
       <c r="F18">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="G18">
-        <v>6.62</v>
+        <v>7.29</v>
       </c>
       <c r="H18">
-        <v>1.55</v>
+        <v>3.36</v>
       </c>
       <c r="I18">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="J18">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="K18">
-        <v>24.48</v>
+        <v>28.8</v>
       </c>
       <c r="L18">
-        <v>-123.3</v>
+        <v>-123.22</v>
       </c>
       <c r="M18">
-        <v>49.33</v>
+        <v>49.39</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>2150</v>
+        <v>2468</v>
       </c>
       <c r="B19" s="1">
-        <v>533.6</v>
+        <v>485.3</v>
       </c>
       <c r="C19">
-        <v>4939</v>
+        <v>5620</v>
       </c>
       <c r="D19">
-        <v>-27.65</v>
+        <v>-29.55</v>
       </c>
       <c r="E19">
-        <v>-29.75</v>
+        <v>-46.05</v>
       </c>
       <c r="F19">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="G19">
-        <v>7.88</v>
+        <v>6.72</v>
       </c>
       <c r="H19">
-        <v>9.57</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="I19">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="J19">
-        <v>12.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="K19">
-        <v>44.64</v>
+        <v>29.88</v>
       </c>
       <c r="L19">
-        <v>-123.26</v>
+        <v>-123.23</v>
       </c>
       <c r="M19">
-        <v>49.37</v>
+        <v>49.39</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>2446</v>
+        <v>2920</v>
       </c>
       <c r="B20" s="1">
-        <v>488.5</v>
+        <v>421.1</v>
       </c>
       <c r="C20">
-        <v>5573</v>
+        <v>6615</v>
       </c>
       <c r="D20">
-        <v>-29.45</v>
+        <v>-37.450000000000003</v>
       </c>
       <c r="E20">
-        <v>-50.75</v>
+        <v>-45.25</v>
       </c>
       <c r="F20">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G20">
-        <v>6.34</v>
+        <v>6.2</v>
       </c>
       <c r="H20">
-        <v>5.22</v>
+        <v>3.6</v>
       </c>
       <c r="I20">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="J20">
-        <v>8.1999999999999993</v>
+        <v>7.2</v>
       </c>
       <c r="K20">
-        <v>29.52</v>
+        <v>25.92</v>
       </c>
       <c r="L20">
-        <v>-123.23</v>
+        <v>-123.21</v>
       </c>
       <c r="M20">
-        <v>49.38</v>
+        <v>49.41</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>2388</v>
+        <v>3044</v>
       </c>
       <c r="B21" s="1">
-        <v>496.9</v>
+        <v>404.2</v>
       </c>
       <c r="C21">
-        <v>5451</v>
+        <v>6897</v>
       </c>
       <c r="D21">
-        <v>-29.05</v>
+        <v>-39.75</v>
       </c>
       <c r="E21">
-        <v>-46.05</v>
+        <v>-47.95</v>
       </c>
       <c r="F21">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G21">
-        <v>5.16</v>
+        <v>7.5</v>
       </c>
       <c r="H21">
-        <v>5.9</v>
+        <v>3.68</v>
       </c>
       <c r="I21">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="J21">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="K21">
-        <v>28.08</v>
+        <v>30.24</v>
       </c>
       <c r="L21">
-        <v>-123.23</v>
+        <v>-123.2</v>
       </c>
       <c r="M21">
-        <v>49.38</v>
+        <v>49.42</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>2310</v>
+        <v>3262</v>
       </c>
       <c r="B22" s="1">
-        <v>508.6</v>
+        <v>378.1</v>
       </c>
       <c r="C22">
-        <v>5284</v>
+        <v>7350</v>
       </c>
       <c r="D22">
-        <v>-27.85</v>
+        <v>-43.65</v>
       </c>
       <c r="E22">
-        <v>-52.85</v>
+        <v>-50.15</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="G22">
-        <v>4.8899999999999997</v>
+        <v>8.75</v>
       </c>
       <c r="H22">
-        <v>6.02</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="I22">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="J22">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="K22">
-        <v>28.08</v>
+        <v>34.56</v>
       </c>
       <c r="L22">
-        <v>-123.24</v>
+        <v>-123.19</v>
       </c>
       <c r="M22">
-        <v>49.38</v>
+        <v>49.43</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>2548</v>
+        <v>3452</v>
       </c>
       <c r="B23" s="1">
-        <v>473.9</v>
+        <v>356.4</v>
       </c>
       <c r="C23">
-        <v>5788</v>
+        <v>7743</v>
       </c>
       <c r="D23">
-        <v>-30.85</v>
+        <v>-46.45</v>
       </c>
       <c r="E23">
         <v>-55.55</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="G23">
-        <v>7.29</v>
+        <v>8.31</v>
       </c>
       <c r="H23">
-        <v>3.36</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="I23">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="J23">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="K23">
-        <v>28.8</v>
+        <v>30.96</v>
       </c>
       <c r="L23">
-        <v>-123.22</v>
+        <v>-123.18</v>
       </c>
       <c r="M23">
-        <v>49.39</v>
+        <v>49.45</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>2468</v>
+        <v>3604</v>
       </c>
       <c r="B24" s="1">
-        <v>485.3</v>
+        <v>336.2</v>
       </c>
       <c r="C24">
-        <v>5620</v>
+        <v>8128</v>
       </c>
       <c r="D24">
-        <v>-29.55</v>
+        <v>-50.15</v>
       </c>
       <c r="E24">
-        <v>-46.05</v>
+        <v>-56.15</v>
       </c>
       <c r="F24">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="G24">
-        <v>6.72</v>
+        <v>7.39</v>
       </c>
       <c r="H24">
-        <v>4.8899999999999997</v>
+        <v>3.46</v>
       </c>
       <c r="I24">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="J24">
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K24">
-        <v>29.88</v>
+        <v>29.52</v>
       </c>
       <c r="L24">
-        <v>-123.23</v>
+        <v>-123.18</v>
       </c>
       <c r="M24">
-        <v>49.39</v>
+        <v>49.46</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>2920</v>
+        <v>4106</v>
       </c>
       <c r="B25" s="1">
-        <v>421.1</v>
+        <v>280.8</v>
       </c>
       <c r="C25">
-        <v>6615</v>
+        <v>9288</v>
       </c>
       <c r="D25">
-        <v>-37.450000000000003</v>
+        <v>-55.15</v>
       </c>
       <c r="E25">
-        <v>-45.25</v>
+        <v>-66.849999999999994</v>
       </c>
       <c r="F25">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G25">
-        <v>6.2</v>
+        <v>10.18</v>
       </c>
       <c r="H25">
-        <v>3.6</v>
+        <v>7.4</v>
       </c>
       <c r="I25">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="J25">
-        <v>7.2</v>
+        <v>12.6</v>
       </c>
       <c r="K25">
-        <v>25.92</v>
+        <v>45.36</v>
       </c>
       <c r="L25">
-        <v>-123.21</v>
+        <v>-123.14</v>
       </c>
       <c r="M25">
-        <v>49.41</v>
+        <v>49.51</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>2832</v>
+        <v>4856</v>
       </c>
       <c r="B26" s="1">
-        <v>433.7</v>
+        <v>213.2</v>
       </c>
       <c r="C26">
-        <v>6412</v>
+        <v>11062</v>
       </c>
       <c r="D26">
-        <v>-35.75</v>
+        <v>-50.55</v>
       </c>
       <c r="E26">
-        <v>-44.85</v>
+        <v>-84.05</v>
       </c>
       <c r="F26">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>5.55</v>
+        <v>8.64</v>
       </c>
       <c r="H26">
-        <v>3.07</v>
+        <v>0.41</v>
       </c>
       <c r="I26">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="J26">
-        <v>6.3</v>
+        <v>8.6</v>
       </c>
       <c r="K26">
-        <v>22.68</v>
+        <v>30.96</v>
       </c>
       <c r="L26">
-        <v>-123.21</v>
+        <v>-123.12</v>
       </c>
       <c r="M26">
-        <v>49.41</v>
+        <v>49.57</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>3044</v>
+        <v>5814</v>
       </c>
       <c r="B27" s="1">
-        <v>404.2</v>
+        <v>149.4</v>
       </c>
       <c r="C27">
-        <v>6897</v>
+        <v>13394</v>
       </c>
       <c r="D27">
-        <v>-39.75</v>
+        <v>-48.15</v>
       </c>
       <c r="E27">
-        <v>-47.95</v>
+        <v>-82.45</v>
       </c>
       <c r="F27">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>7.5</v>
+        <v>9.52</v>
       </c>
       <c r="H27">
-        <v>3.68</v>
+        <v>3.61</v>
       </c>
       <c r="I27">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J27">
-        <v>8.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="K27">
-        <v>30.24</v>
+        <v>36.72</v>
       </c>
       <c r="L27">
-        <v>-123.2</v>
+        <v>-123.1</v>
       </c>
       <c r="M27">
-        <v>49.42</v>
+        <v>49.64</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>3014</v>
+        <v>6940</v>
       </c>
       <c r="B28" s="1">
-        <v>408.2</v>
+        <v>94.7</v>
       </c>
       <c r="C28">
-        <v>6829</v>
+        <v>16360</v>
       </c>
       <c r="D28">
-        <v>-39.15</v>
+        <v>-50.45</v>
       </c>
       <c r="E28">
-        <v>-50.35</v>
+        <v>-84.05</v>
       </c>
       <c r="F28">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>6.75</v>
+        <v>10.71</v>
       </c>
       <c r="H28">
-        <v>3.64</v>
+        <v>3.67</v>
       </c>
       <c r="I28">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J28">
-        <v>7.7</v>
+        <v>11.3</v>
       </c>
       <c r="K28">
-        <v>27.72</v>
+        <v>40.68</v>
       </c>
       <c r="L28">
-        <v>-123.2</v>
+        <v>-123.06</v>
       </c>
       <c r="M28">
-        <v>49.42</v>
+        <v>49.71</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>3262</v>
+        <v>7602</v>
       </c>
       <c r="B29" s="1">
-        <v>378.1</v>
+        <v>71.8</v>
       </c>
       <c r="C29">
-        <v>7350</v>
+        <v>18148</v>
       </c>
       <c r="D29">
-        <v>-43.65</v>
+        <v>-54.45</v>
       </c>
       <c r="E29">
-        <v>-50.15</v>
+        <v>-86.95</v>
       </c>
       <c r="F29">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>8.75</v>
+        <v>6.85</v>
       </c>
       <c r="H29">
-        <v>4.0199999999999996</v>
+        <v>1.38</v>
       </c>
       <c r="I29">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="J29">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="K29">
-        <v>34.56</v>
+        <v>25.2</v>
       </c>
       <c r="L29">
-        <v>-123.19</v>
+        <v>-123.03</v>
       </c>
       <c r="M29">
-        <v>49.43</v>
+        <v>49.74</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>3452</v>
+        <v>8364</v>
       </c>
       <c r="B30" s="1">
-        <v>356.4</v>
+        <v>52.8</v>
       </c>
       <c r="C30">
-        <v>7743</v>
+        <v>20139</v>
       </c>
       <c r="D30">
-        <v>-46.45</v>
+        <v>-50.35</v>
       </c>
       <c r="E30">
-        <v>-55.55</v>
+        <v>-84.05</v>
       </c>
       <c r="F30">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>8.31</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H30">
-        <v>2.0499999999999998</v>
+        <v>-4.57</v>
       </c>
       <c r="I30">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="J30">
-        <v>8.6</v>
+        <v>6.5</v>
       </c>
       <c r="K30">
-        <v>30.96</v>
+        <v>23.4</v>
       </c>
       <c r="L30">
-        <v>-123.18</v>
+        <v>-123.01</v>
       </c>
       <c r="M30">
-        <v>49.45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>3604</v>
-      </c>
-      <c r="B31" s="1">
-        <v>336.2</v>
-      </c>
-      <c r="C31">
-        <v>8128</v>
-      </c>
-      <c r="D31">
-        <v>-50.15</v>
-      </c>
-      <c r="E31">
-        <v>-56.15</v>
-      </c>
-      <c r="F31">
-        <v>50</v>
-      </c>
-      <c r="G31">
-        <v>7.39</v>
-      </c>
-      <c r="H31">
-        <v>3.46</v>
-      </c>
-      <c r="I31">
-        <v>205</v>
-      </c>
-      <c r="J31">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="K31">
-        <v>29.52</v>
-      </c>
-      <c r="L31">
-        <v>-123.18</v>
-      </c>
-      <c r="M31">
-        <v>49.46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>4056</v>
-      </c>
-      <c r="B32" s="1">
-        <v>285.89999999999998</v>
-      </c>
-      <c r="C32">
-        <v>9172</v>
-      </c>
-      <c r="D32">
-        <v>-54.85</v>
-      </c>
-      <c r="E32">
-        <v>-65.75</v>
-      </c>
-      <c r="F32">
-        <v>25</v>
-      </c>
-      <c r="G32">
-        <v>10.23</v>
-      </c>
-      <c r="H32">
-        <v>8.6</v>
-      </c>
-      <c r="I32">
-        <v>220</v>
-      </c>
-      <c r="J32">
-        <v>13.4</v>
-      </c>
-      <c r="K32">
-        <v>48.24</v>
-      </c>
-      <c r="L32">
-        <v>-123.14</v>
-      </c>
-      <c r="M32">
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>4014</v>
-      </c>
-      <c r="B33" s="1">
-        <v>290.39999999999998</v>
-      </c>
-      <c r="C33">
-        <v>9073</v>
-      </c>
-      <c r="D33">
-        <v>-54.65</v>
-      </c>
-      <c r="E33">
-        <v>-71.45</v>
-      </c>
-      <c r="F33">
-        <v>11</v>
-      </c>
-      <c r="G33">
-        <v>11.16</v>
-      </c>
-      <c r="H33">
-        <v>8.51</v>
-      </c>
-      <c r="I33">
-        <v>217</v>
-      </c>
-      <c r="J33">
-        <v>14</v>
-      </c>
-      <c r="K33">
-        <v>50.4</v>
-      </c>
-      <c r="L33">
-        <v>-123.15</v>
-      </c>
-      <c r="M33">
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>4170</v>
-      </c>
-      <c r="B34" s="1">
-        <v>274.5</v>
-      </c>
-      <c r="C34">
-        <v>9433</v>
-      </c>
-      <c r="D34">
-        <v>-54.65</v>
-      </c>
-      <c r="E34">
-        <v>-67.650000000000006</v>
-      </c>
-      <c r="F34">
-        <v>19</v>
-      </c>
-      <c r="G34">
-        <v>8.98</v>
-      </c>
-      <c r="H34">
-        <v>5.56</v>
-      </c>
-      <c r="I34">
-        <v>212</v>
-      </c>
-      <c r="J34">
-        <v>10.6</v>
-      </c>
-      <c r="K34">
-        <v>38.159999999999997</v>
-      </c>
-      <c r="L34">
-        <v>-123.13</v>
-      </c>
-      <c r="M34">
-        <v>49.51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>4106</v>
-      </c>
-      <c r="B35" s="1">
-        <v>280.8</v>
-      </c>
-      <c r="C35">
-        <v>9288</v>
-      </c>
-      <c r="D35">
-        <v>-55.15</v>
-      </c>
-      <c r="E35">
-        <v>-66.849999999999994</v>
-      </c>
-      <c r="F35">
-        <v>23</v>
-      </c>
-      <c r="G35">
-        <v>10.18</v>
-      </c>
-      <c r="H35">
-        <v>7.4</v>
-      </c>
-      <c r="I35">
-        <v>216</v>
-      </c>
-      <c r="J35">
-        <v>12.6</v>
-      </c>
-      <c r="K35">
-        <v>45.36</v>
-      </c>
-      <c r="L35">
-        <v>-123.14</v>
-      </c>
-      <c r="M35">
-        <v>49.51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>4270</v>
-      </c>
-      <c r="B36" s="1">
-        <v>265.10000000000002</v>
-      </c>
-      <c r="C36">
-        <v>9655</v>
-      </c>
-      <c r="D36">
-        <v>-53.85</v>
-      </c>
-      <c r="E36">
-        <v>-76.650000000000006</v>
-      </c>
-      <c r="F36">
-        <v>5</v>
-      </c>
-      <c r="G36">
-        <v>9.34</v>
-      </c>
-      <c r="H36">
-        <v>-1.26</v>
-      </c>
-      <c r="I36">
-        <v>172</v>
-      </c>
-      <c r="J36">
-        <v>9.4</v>
-      </c>
-      <c r="K36">
-        <v>33.840000000000003</v>
-      </c>
-      <c r="L36">
-        <v>-123.13</v>
-      </c>
-      <c r="M36">
-        <v>49.52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>4592</v>
-      </c>
-      <c r="B37" s="1">
-        <v>234.9</v>
-      </c>
-      <c r="C37">
-        <v>10434</v>
-      </c>
-      <c r="D37">
-        <v>-52.85</v>
-      </c>
-      <c r="E37">
-        <v>-81.150000000000006</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>8.82</v>
-      </c>
-      <c r="H37">
-        <v>0.63</v>
-      </c>
-      <c r="I37">
-        <v>184</v>
-      </c>
-      <c r="J37">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="K37">
-        <v>31.68</v>
-      </c>
-      <c r="L37">
-        <v>-123.12</v>
-      </c>
-      <c r="M37">
-        <v>49.55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>4720</v>
-      </c>
-      <c r="B38" s="1">
-        <v>224.4</v>
-      </c>
-      <c r="C38">
-        <v>10728</v>
-      </c>
-      <c r="D38">
-        <v>-51.95</v>
-      </c>
-      <c r="E38">
-        <v>-80.650000000000006</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <v>10.64</v>
-      </c>
-      <c r="H38">
-        <v>-0.2</v>
-      </c>
-      <c r="I38">
-        <v>179</v>
-      </c>
-      <c r="J38">
-        <v>10.6</v>
-      </c>
-      <c r="K38">
-        <v>38.159999999999997</v>
-      </c>
-      <c r="L38">
-        <v>-123.12</v>
-      </c>
-      <c r="M38">
-        <v>49.56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>4856</v>
-      </c>
-      <c r="B39" s="1">
-        <v>213.2</v>
-      </c>
-      <c r="C39">
-        <v>11062</v>
-      </c>
-      <c r="D39">
-        <v>-50.55</v>
-      </c>
-      <c r="E39">
-        <v>-84.05</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>8.64</v>
-      </c>
-      <c r="H39">
-        <v>0.41</v>
-      </c>
-      <c r="I39">
-        <v>183</v>
-      </c>
-      <c r="J39">
-        <v>8.6</v>
-      </c>
-      <c r="K39">
-        <v>30.96</v>
-      </c>
-      <c r="L39">
-        <v>-123.12</v>
-      </c>
-      <c r="M39">
-        <v>49.57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <v>5814</v>
-      </c>
-      <c r="B40" s="1">
-        <v>149.4</v>
-      </c>
-      <c r="C40">
-        <v>13394</v>
-      </c>
-      <c r="D40">
-        <v>-48.15</v>
-      </c>
-      <c r="E40">
-        <v>-82.45</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>9.52</v>
-      </c>
-      <c r="H40">
-        <v>3.61</v>
-      </c>
-      <c r="I40">
-        <v>201</v>
-      </c>
-      <c r="J40">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="K40">
-        <v>36.72</v>
-      </c>
-      <c r="L40">
-        <v>-123.1</v>
-      </c>
-      <c r="M40">
-        <v>49.64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>6220</v>
-      </c>
-      <c r="B41" s="1">
-        <v>126.6</v>
-      </c>
-      <c r="C41">
-        <v>14472</v>
-      </c>
-      <c r="D41">
-        <v>-51.65</v>
-      </c>
-      <c r="E41">
-        <v>-84.95</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>9.68</v>
-      </c>
-      <c r="H41">
-        <v>0.61</v>
-      </c>
-      <c r="I41">
-        <v>184</v>
-      </c>
-      <c r="J41">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="K41">
-        <v>34.92</v>
-      </c>
-      <c r="L41">
-        <v>-123.09</v>
-      </c>
-      <c r="M41">
-        <v>49.67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <v>6940</v>
-      </c>
-      <c r="B42" s="1">
-        <v>94.7</v>
-      </c>
-      <c r="C42">
-        <v>16360</v>
-      </c>
-      <c r="D42">
-        <v>-50.45</v>
-      </c>
-      <c r="E42">
-        <v>-84.05</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>10.71</v>
-      </c>
-      <c r="H42">
-        <v>3.67</v>
-      </c>
-      <c r="I42">
-        <v>199</v>
-      </c>
-      <c r="J42">
-        <v>11.3</v>
-      </c>
-      <c r="K42">
-        <v>40.68</v>
-      </c>
-      <c r="L42">
-        <v>-123.06</v>
-      </c>
-      <c r="M42">
-        <v>49.71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <v>7602</v>
-      </c>
-      <c r="B43" s="1">
-        <v>71.8</v>
-      </c>
-      <c r="C43">
-        <v>18148</v>
-      </c>
-      <c r="D43">
-        <v>-54.45</v>
-      </c>
-      <c r="E43">
-        <v>-86.95</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>6.85</v>
-      </c>
-      <c r="H43">
-        <v>1.38</v>
-      </c>
-      <c r="I43">
-        <v>191</v>
-      </c>
-      <c r="J43">
-        <v>7</v>
-      </c>
-      <c r="K43">
-        <v>25.2</v>
-      </c>
-      <c r="L43">
-        <v>-123.03</v>
-      </c>
-      <c r="M43">
-        <v>49.74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <v>8578</v>
-      </c>
-      <c r="B44" s="1">
-        <v>48.1</v>
-      </c>
-      <c r="C44">
-        <v>20746</v>
-      </c>
-      <c r="D44">
-        <v>-52.15</v>
-      </c>
-      <c r="E44">
-        <v>-85.25</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>3.32</v>
-      </c>
-      <c r="H44">
-        <v>-5.92</v>
-      </c>
-      <c r="I44">
-        <v>119</v>
-      </c>
-      <c r="J44">
-        <v>6.8</v>
-      </c>
-      <c r="K44">
-        <v>24.48</v>
-      </c>
-      <c r="L44">
-        <v>-123.02</v>
-      </c>
-      <c r="M44">
-        <v>49.76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>8364</v>
-      </c>
-      <c r="B45" s="1">
-        <v>52.8</v>
-      </c>
-      <c r="C45">
-        <v>20139</v>
-      </c>
-      <c r="D45">
-        <v>-50.35</v>
-      </c>
-      <c r="E45">
-        <v>-84.05</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H45">
-        <v>-4.57</v>
-      </c>
-      <c r="I45">
-        <v>135</v>
-      </c>
-      <c r="J45">
-        <v>6.5</v>
-      </c>
-      <c r="K45">
-        <v>23.4</v>
-      </c>
-      <c r="L45">
-        <v>-123.01</v>
-      </c>
-      <c r="M45">
         <v>49.76</v>
       </c>
     </row>
